--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - total.xlsx
@@ -15,10 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="73">
   <si>
-    <t>Producer price index for industrial products (incl. rates of
-change): Germany, months</t>
+    <t>Producer price index for industrial products: Germany,
+months</t>
   </si>
   <si>
     <t>Index of producer prices of industrial products</t>
@@ -235,7 +235,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:54:39</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:33:36</t>
   </si>
 </sst>
 </file>
@@ -8912,28 +8912,28 @@
       <c r="B560" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="C560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="D560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E560" t="s" s="10">
-        <v>70</v>
+      <c r="C560" t="n" s="10">
+        <v>141.2</v>
+      </c>
+      <c r="D560" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="E560" t="n" s="10">
+        <v>30.9</v>
       </c>
     </row>
     <row r="561">
       <c r="B561" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="C561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="D561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E561" t="s" s="10">
-        <v>70</v>
+      <c r="C561" t="n" s="10">
+        <v>145.2</v>
+      </c>
+      <c r="D561" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="E561" t="n" s="10">
+        <v>33.5</v>
       </c>
     </row>
     <row r="562">
@@ -9068,7 +9068,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:54:44&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:33:40&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - total.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="73">
   <si>
     <t>Producer price index for industrial products: Germany,
 months</t>
@@ -235,7 +235,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:33:36</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:44:54</t>
   </si>
 </sst>
 </file>
@@ -8940,14 +8940,14 @@
       <c r="B562" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="C562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="D562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E562" t="s" s="10">
-        <v>70</v>
+      <c r="C562" t="n" s="10">
+        <v>147.5</v>
+      </c>
+      <c r="D562" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="E562" t="n" s="10">
+        <v>33.6</v>
       </c>
     </row>
     <row r="563">
@@ -9068,7 +9068,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:33:40&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:44:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>